--- a/statistics/HistoricalDistanceData/historical_distance/Q23045905-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q23045905-en.xlsx
@@ -31,39 +31,39 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Turkish Minute, Turkish daily news, Latest News</t>
+  </si>
+  <si>
     <t>Ankara car bomb kills at least 27 people and wounds 75</t>
   </si>
   <si>
+    <t>Kurdish militant group claims responsibility for Ankara suicide b</t>
+  </si>
+  <si>
+    <t>Are deserted streets, shops the new normal in Ankara?</t>
+  </si>
+  <si>
     <t>Kurdish militant group with ties to PKK claims Ankara bombing</t>
   </si>
   <si>
-    <t>Are deserted streets, shops the new normal in Ankara?</t>
-  </si>
-  <si>
-    <t>Turkish Minute, Turkish daily news, Latest News</t>
-  </si>
-  <si>
-    <t>Kurdish militant group claims responsibility for Ankara suicide b</t>
-  </si>
-  <si>
     <t>Ankara bombing: Australian ambassador to Turkey recounts chaotic blast scene</t>
   </si>
   <si>
+    <t>2016-03-13T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2016-03-13T17:28:00UTC</t>
   </si>
   <si>
+    <t>2016-03-18T11:00:38UTC</t>
+  </si>
+  <si>
+    <t>2016-03-17T07:16:00UTC</t>
+  </si>
+  <si>
     <t>2016-03-17T08:17:42UTC</t>
   </si>
   <si>
-    <t>2016-03-17T07:16:00UTC</t>
-  </si>
-  <si>
-    <t>2016-03-13T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2016-03-18T11:00:38UTC</t>
-  </si>
-  <si>
     <t>2016-03-14T21:18:52UTC</t>
   </si>
   <si>
@@ -76,19 +76,19 @@
     <t>day_1</t>
   </si>
   <si>
+    <t>http://www.turkishminute.com/latest-news_military-intel-document-underlines-threat-of-terorrist-attack-days-before-ankara-explosion_403758.html</t>
+  </si>
+  <si>
     <t>http://www.irishtimes.com/news/world/europe/ankara-car-bomb-kills-at-least-27-people-and-wounds-75-1.2571580</t>
   </si>
   <si>
+    <t>https://www.alaraby.co.uk/english/news/2016/3/18/kurdish-militant-group-claims-responsibility-for-ankara-suicide-bombing</t>
+  </si>
+  <si>
+    <t>http://www.al-monitor.com/pulse/originals/2016/03/turkey-ankara-fear-reigns-after-bloody-bombings.html</t>
+  </si>
+  <si>
     <t>http://www.france24.com/en/20160317-kurdish-militant-group-tied-pkk-says-it-was-behind-ankara-bombing</t>
-  </si>
-  <si>
-    <t>http://www.al-monitor.com/pulse/originals/2016/03/turkey-ankara-fear-reigns-after-bloody-bombings.html</t>
-  </si>
-  <si>
-    <t>http://www.turkishminute.com/latest-news_military-intel-document-underlines-threat-of-terorrist-attack-days-before-ankara-explosion_403758.html</t>
-  </si>
-  <si>
-    <t>https://www.alaraby.co.uk/english/news/2016/3/18/kurdish-militant-group-claims-responsibility-for-ankara-suicide-bombing</t>
   </si>
   <si>
     <t>http://www.abc.net.au/news/2016-03-14/australian-ambassador-to-turkey-recounts-ankara-blast/7245966</t>
@@ -510,10 +510,10 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>21</v>
@@ -527,7 +527,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -544,10 +544,10 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>23</v>
@@ -561,7 +561,7 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
